--- a/data/Grau de Humifica__o.xlsx
+++ b/data/Grau de Humifica__o.xlsx
@@ -5,23 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\carbono-camila\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\carbono-camila\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan2" sheetId="3" r:id="rId1"/>
-    <sheet name="ano_1" sheetId="1" r:id="rId2"/>
+    <sheet name="ano_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ano_1!$K$1:$K$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ano_1!$K$1:$K$99</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="79">
   <si>
     <t>0.0-0.05</t>
   </si>
@@ -51,18 +47,6 @@
     <t>0.05-0.10</t>
   </si>
   <si>
-    <t>Sem planta de cobertura</t>
-  </si>
-  <si>
-    <t>Crotalária</t>
-  </si>
-  <si>
-    <t>Amendoim</t>
-  </si>
-  <si>
-    <t>Milheto</t>
-  </si>
-  <si>
     <t>SPS</t>
   </si>
   <si>
@@ -258,16 +242,7 @@
     <t xml:space="preserve">Milheto </t>
   </si>
   <si>
-    <t>Rótulos de Coluna</t>
-  </si>
-  <si>
-    <t>Total Geral</t>
-  </si>
-  <si>
     <t>HLIF</t>
-  </si>
-  <si>
-    <t>Média de HLIF</t>
   </si>
   <si>
     <t>ciclo</t>
@@ -392,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -401,8 +376,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -420,2979 +393,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Grau de Humifica__o.xlsx]Plan2!Tabela dinâmica3</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan2!$B$3:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Amendoim</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Plan2!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan2!$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3869.350124483849</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan2!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Crotalária</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Plan2!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan2!$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3574.8236384825213</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan2!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Milheto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Plan2!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan2!$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3883.9681588603435</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan2!$E$3:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sem planta de cobertura</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Plan2!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan2!$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4524.8461835843536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan2!$F$3:$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sorgo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Plan2!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan2!$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3871.7048509279662</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-946153104"/>
-        <c:axId val="-946150928"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-946153104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-946150928"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-946150928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-946153104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr b="0"/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Usuario" refreshedDate="44966.647635648151" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="148">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="K1:K99" sheet="ano_1"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="Amostra" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="387"/>
-    </cacheField>
-    <cacheField name="Prof." numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Planta de cobertura" numFmtId="0">
-      <sharedItems count="5">
-        <s v="Sorgo"/>
-        <s v="Sem planta de cobertura"/>
-        <s v="Crotalária"/>
-        <s v="Amendoim"/>
-        <s v="Milheto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="SPS" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="L/EL" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Bloco" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Carbono %" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.39479999999999998" maxValue="3.6819999999999999"/>
-    </cacheField>
-    <cacheField name="C (g/kg)" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.948" maxValue="36.82"/>
-    </cacheField>
-    <cacheField name="ALIF (u.a)" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="19065.122500000001" maxValue="36932"/>
-    </cacheField>
-    <cacheField name="HLIF" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="791.40148017381853" maxValue="7329.4452887538"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="148">
-  <r>
-    <n v="1"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="1.0649999999999999"/>
-    <n v="10.649999999999999"/>
-    <n v="31554.639999999999"/>
-    <n v="2962.8769953051647"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.92249999999999999"/>
-    <n v="9.2249999999999996"/>
-    <n v="30771.887500000001"/>
-    <n v="3335.705962059621"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="1.5580000000000001"/>
-    <n v="15.58"/>
-    <n v="25186.550000000003"/>
-    <n v="1616.5949935815149"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.73119999999999996"/>
-    <n v="7.3119999999999994"/>
-    <n v="27023.724999999999"/>
-    <n v="3695.8048413566739"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.58030000000000004"/>
-    <n v="5.8030000000000008"/>
-    <n v="26293.243333333336"/>
-    <n v="4530.9742087426039"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.51470000000000005"/>
-    <n v="5.1470000000000002"/>
-    <n v="29202.812499999996"/>
-    <n v="5673.7541286186115"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.59260000000000002"/>
-    <n v="5.9260000000000002"/>
-    <n v="29358.894999999997"/>
-    <n v="4954.2516031049609"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.86699999999999999"/>
-    <n v="8.67"/>
-    <n v="24734.622500000005"/>
-    <n v="2852.8976355247987"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.84650000000000003"/>
-    <n v="8.4649999999999999"/>
-    <n v="25184.385000000002"/>
-    <n v="2975.1193148257535"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="1.175"/>
-    <n v="11.75"/>
-    <n v="24613.566666666666"/>
-    <n v="2094.7716312056737"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.60799999999999998"/>
-    <n v="6.08"/>
-    <n v="27513.666666666668"/>
-    <n v="4525.2741228070181"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <s v="0.0-0.05"/>
-    <x v="1"/>
-    <s v="Preparo convencional"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.79039999999999999"/>
-    <n v="7.9039999999999999"/>
-    <n v="28778.883333333331"/>
-    <n v="3641.0530533063425"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <s v="0.05-0.10"/>
-    <x v="1"/>
-    <s v="Preparo convencional"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.51019999999999999"/>
-    <n v="5.1020000000000003"/>
-    <n v="25533.346666666668"/>
-    <n v="5004.5759832745325"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <s v="0.0-0.05"/>
-    <x v="1"/>
-    <s v="Preparo convencional"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.68720000000000003"/>
-    <n v="6.8719999999999999"/>
-    <n v="28654.25"/>
-    <n v="4169.7104190919672"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <s v="0.05-0.10"/>
-    <x v="1"/>
-    <s v="Preparo convencional"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.47649999999999998"/>
-    <n v="4.7649999999999997"/>
-    <n v="25803.564999999999"/>
-    <n v="5415.2287513116471"/>
-  </r>
-  <r>
-    <n v="41"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="1.556"/>
-    <n v="15.56"/>
-    <n v="30229.133333333331"/>
-    <n v="1942.7463581833761"/>
-  </r>
-  <r>
-    <n v="42"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.89549999999999996"/>
-    <n v="8.9550000000000001"/>
-    <n v="25148.183333333334"/>
-    <n v="2808.2840126558722"/>
-  </r>
-  <r>
-    <n v="51"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="1.4079999999999999"/>
-    <n v="14.079999999999998"/>
-    <n v="32097.754999999997"/>
-    <n v="2279.6700994318185"/>
-  </r>
-  <r>
-    <n v="52"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.66800000000000004"/>
-    <n v="6.6800000000000006"/>
-    <n v="30054.61"/>
-    <n v="4499.193113772455"/>
-  </r>
-  <r>
-    <n v="56"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.60140000000000005"/>
-    <n v="6.0140000000000002"/>
-    <n v="26067.564999999999"/>
-    <n v="4334.4803791153972"/>
-  </r>
-  <r>
-    <n v="57"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.48820000000000002"/>
-    <n v="4.8820000000000006"/>
-    <n v="27488.434999999998"/>
-    <n v="5630.568414584186"/>
-  </r>
-  <r>
-    <n v="61"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.92510000000000003"/>
-    <n v="9.2510000000000012"/>
-    <n v="33837.73333333333"/>
-    <n v="3657.7379022087694"/>
-  </r>
-  <r>
-    <n v="62"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.64370000000000005"/>
-    <n v="6.4370000000000003"/>
-    <n v="31386.799999999999"/>
-    <n v="4875.9981357775359"/>
-  </r>
-  <r>
-    <n v="66"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.78469999999999995"/>
-    <n v="7.8469999999999995"/>
-    <n v="29591.360000000001"/>
-    <n v="3771.0411622276033"/>
-  </r>
-  <r>
-    <n v="67"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.57299999999999995"/>
-    <n v="5.7299999999999995"/>
-    <n v="35075.876666666671"/>
-    <n v="6121.4444444444453"/>
-  </r>
-  <r>
-    <n v="71"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="1.56"/>
-    <n v="15.600000000000001"/>
-    <n v="32915.163333333338"/>
-    <n v="2109.9463675213674"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.79920000000000002"/>
-    <n v="7.992"/>
-    <n v="26847.325000000001"/>
-    <n v="3359.2748998999"/>
-  </r>
-  <r>
-    <n v="76"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="1.585"/>
-    <n v="15.85"/>
-    <n v="36932"/>
-    <n v="2330.094637223975"/>
-  </r>
-  <r>
-    <n v="77"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.72650000000000003"/>
-    <n v="7.2650000000000006"/>
-    <n v="27044.735000000001"/>
-    <n v="3722.6063317274602"/>
-  </r>
-  <r>
-    <n v="81"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.52659999999999996"/>
-    <n v="5.266"/>
-    <n v="27079.334999999999"/>
-    <n v="5142.2968097227495"/>
-  </r>
-  <r>
-    <n v="82"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.65439999999999998"/>
-    <n v="6.5439999999999996"/>
-    <n v="24883.769999999997"/>
-    <n v="3802.5320904645473"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.67430000000000001"/>
-    <n v="6.7430000000000003"/>
-    <n v="32474.467499999999"/>
-    <n v="4816.0266201987242"/>
-  </r>
-  <r>
-    <n v="87"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.67090000000000005"/>
-    <n v="6.7090000000000005"/>
-    <n v="25811.454999999994"/>
-    <n v="3847.2879713817251"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="1.266"/>
-    <n v="12.66"/>
-    <n v="32596.107499999998"/>
-    <n v="2574.7320300157976"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.81579999999999997"/>
-    <n v="8.1579999999999995"/>
-    <n v="29149.872499999998"/>
-    <n v="3573.1640720764894"/>
-  </r>
-  <r>
-    <n v="96"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.85099999999999998"/>
-    <n v="8.51"/>
-    <n v="31746.240000000002"/>
-    <n v="3730.4629847238548"/>
-  </r>
-  <r>
-    <n v="97"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.76600000000000001"/>
-    <n v="7.66"/>
-    <n v="27728.504999999997"/>
-    <n v="3619.9092689295035"/>
-  </r>
-  <r>
-    <n v="101"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.87549999999999994"/>
-    <n v="8.754999999999999"/>
-    <n v="27250.267500000002"/>
-    <n v="3112.5376927470024"/>
-  </r>
-  <r>
-    <n v="102"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.65500000000000003"/>
-    <n v="6.5500000000000007"/>
-    <n v="30219.930000000004"/>
-    <n v="4613.7297709923669"/>
-  </r>
-  <r>
-    <n v="106"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.80879999999999996"/>
-    <n v="8.0879999999999992"/>
-    <n v="27870.044999999998"/>
-    <n v="3445.8512611275964"/>
-  </r>
-  <r>
-    <n v="107"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.53810000000000002"/>
-    <n v="5.3810000000000002"/>
-    <n v="28285.200000000001"/>
-    <n v="5256.495075264821"/>
-  </r>
-  <r>
-    <n v="111"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="2.1800000000000002"/>
-    <n v="21.8"/>
-    <n v="34930.606666666667"/>
-    <n v="1602.3214067278286"/>
-  </r>
-  <r>
-    <n v="112"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.59030000000000005"/>
-    <n v="5.9030000000000005"/>
-    <n v="24457.794999999998"/>
-    <n v="4143.2822293748932"/>
-  </r>
-  <r>
-    <n v="116"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.46579999999999999"/>
-    <n v="4.6579999999999995"/>
-    <n v="22826.105"/>
-    <n v="4900.4089738085022"/>
-  </r>
-  <r>
-    <n v="117"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.48320000000000002"/>
-    <n v="4.8319999999999999"/>
-    <n v="23002.037500000002"/>
-    <n v="4760.3554428807956"/>
-  </r>
-  <r>
-    <n v="122"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.55079999999999996"/>
-    <n v="5.5079999999999991"/>
-    <n v="30432.403333333335"/>
-    <n v="5525.127693052531"/>
-  </r>
-  <r>
-    <n v="126"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.74280000000000002"/>
-    <n v="7.4279999999999999"/>
-    <n v="25754.75"/>
-    <n v="3467.2522886375878"/>
-  </r>
-  <r>
-    <n v="127"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 1"/>
-    <n v="0.50780000000000003"/>
-    <n v="5.0780000000000003"/>
-    <n v="24770.732499999998"/>
-    <n v="4878.0489365892081"/>
-  </r>
-  <r>
-    <n v="131"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="1.0620000000000001"/>
-    <n v="10.620000000000001"/>
-    <n v="29182.309999999998"/>
-    <n v="2747.8634651600751"/>
-  </r>
-  <r>
-    <n v="132"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.57830000000000004"/>
-    <n v="5.7830000000000004"/>
-    <n v="26052.525000000001"/>
-    <n v="4505.0190212692378"/>
-  </r>
-  <r>
-    <n v="136"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.84140000000000004"/>
-    <n v="8.4139999999999997"/>
-    <n v="28336.63"/>
-    <n v="3367.79534109817"/>
-  </r>
-  <r>
-    <n v="137"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.60460000000000003"/>
-    <n v="6.0460000000000003"/>
-    <n v="26549.313333333335"/>
-    <n v="4391.2195390892048"/>
-  </r>
-  <r>
-    <n v="141"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.81100000000000005"/>
-    <n v="8.1100000000000012"/>
-    <n v="27654.89"/>
-    <n v="3409.9741060419228"/>
-  </r>
-  <r>
-    <n v="142"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.74480000000000002"/>
-    <n v="7.4480000000000004"/>
-    <n v="27102.285000000003"/>
-    <n v="3638.8674812030076"/>
-  </r>
-  <r>
-    <n v="146"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.9476"/>
-    <n v="9.4759999999999991"/>
-    <n v="27793.557499999999"/>
-    <n v="2933.0474356268469"/>
-  </r>
-  <r>
-    <n v="147"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.68289999999999995"/>
-    <n v="6.8289999999999997"/>
-    <n v="28266.069999999996"/>
-    <n v="4139.1228583980082"/>
-  </r>
-  <r>
-    <n v="151"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.74029999999999996"/>
-    <n v="7.4029999999999996"/>
-    <n v="26708.0825"/>
-    <n v="3607.7377414561665"/>
-  </r>
-  <r>
-    <n v="152"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.50439999999999996"/>
-    <n v="5.0439999999999996"/>
-    <n v="24871.69"/>
-    <n v="4930.9456780333066"/>
-  </r>
-  <r>
-    <n v="156"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.65"/>
-    <n v="6.5"/>
-    <n v="27136.572500000002"/>
-    <n v="4174.8573076923076"/>
-  </r>
-  <r>
-    <n v="157"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.49249999999999999"/>
-    <n v="4.9249999999999998"/>
-    <n v="25125.452499999999"/>
-    <n v="5101.6147208121829"/>
-  </r>
-  <r>
-    <n v="161"/>
-    <s v="0.0-0.05"/>
-    <x v="1"/>
-    <s v="Preparo convencional"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.5474"/>
-    <n v="5.4740000000000002"/>
-    <n v="27490.357499999998"/>
-    <n v="5021.9871209353305"/>
-  </r>
-  <r>
-    <n v="166"/>
-    <s v="0.0-0.05"/>
-    <x v="1"/>
-    <s v="Preparo convencional"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.52210000000000001"/>
-    <n v="5.2210000000000001"/>
-    <n v="24333.86"/>
-    <n v="4660.766136755411"/>
-  </r>
-  <r>
-    <n v="167"/>
-    <s v="0.05-0.10"/>
-    <x v="1"/>
-    <s v="Preparo convencional"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.44550000000000001"/>
-    <n v="4.4550000000000001"/>
-    <n v="23079.739999999998"/>
-    <n v="5180.6374859708185"/>
-  </r>
-  <r>
-    <n v="171"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.64419999999999999"/>
-    <n v="6.4420000000000002"/>
-    <n v="22105.059999999998"/>
-    <n v="3431.3970816516603"/>
-  </r>
-  <r>
-    <n v="172"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.60799999999999998"/>
-    <n v="6.08"/>
-    <n v="27956.365000000002"/>
-    <n v="4598.0863486842109"/>
-  </r>
-  <r>
-    <n v="176"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.64290000000000003"/>
-    <n v="6.4290000000000003"/>
-    <n v="26342.702500000003"/>
-    <n v="4097.4805568517659"/>
-  </r>
-  <r>
-    <n v="177"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.64290000000000003"/>
-    <n v="6.4290000000000003"/>
-    <n v="23511.573333333334"/>
-    <n v="3657.1120443822265"/>
-  </r>
-  <r>
-    <n v="181"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.87570000000000003"/>
-    <n v="8.7569999999999997"/>
-    <n v="28341.439999999999"/>
-    <n v="3236.4325682311292"/>
-  </r>
-  <r>
-    <n v="182"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.63160000000000005"/>
-    <n v="6.3160000000000007"/>
-    <n v="26767.559999999998"/>
-    <n v="4238.055731475617"/>
-  </r>
-  <r>
-    <n v="186"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.60809999999999997"/>
-    <n v="6.0809999999999995"/>
-    <n v="27895.956666666665"/>
-    <n v="4587.3962615797846"/>
-  </r>
-  <r>
-    <n v="187"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.52149999999999996"/>
-    <n v="5.2149999999999999"/>
-    <n v="22829.892500000002"/>
-    <n v="4377.7358581016306"/>
-  </r>
-  <r>
-    <n v="191"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="1.6879999999999999"/>
-    <n v="16.88"/>
-    <n v="27060.2"/>
-    <n v="1603.0924170616115"/>
-  </r>
-  <r>
-    <n v="192"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.73299999999999998"/>
-    <n v="7.33"/>
-    <n v="25417.4925"/>
-    <n v="3467.5978854024556"/>
-  </r>
-  <r>
-    <n v="196"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.98070000000000002"/>
-    <n v="9.8070000000000004"/>
-    <n v="25902.897500000003"/>
-    <n v="2641.2661874171513"/>
-  </r>
-  <r>
-    <n v="197"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.58950000000000002"/>
-    <n v="5.8950000000000005"/>
-    <n v="27931.03"/>
-    <n v="4738.0882103477516"/>
-  </r>
-  <r>
-    <n v="201"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="1.4890000000000001"/>
-    <n v="14.89"/>
-    <n v="31411.632500000003"/>
-    <n v="2109.5790799194092"/>
-  </r>
-  <r>
-    <n v="202"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.66520000000000001"/>
-    <n v="6.6520000000000001"/>
-    <n v="32182.8066666667"/>
-    <n v="4838.0647424333583"/>
-  </r>
-  <r>
-    <n v="206"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.52929999999999999"/>
-    <n v="5.2930000000000001"/>
-    <n v="29829.695"/>
-    <n v="5635.6877007368221"/>
-  </r>
-  <r>
-    <n v="207"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.46129999999999999"/>
-    <n v="4.6129999999999995"/>
-    <n v="27108.353333333333"/>
-    <n v="5876.5127538116922"/>
-  </r>
-  <r>
-    <n v="211"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="1.0760000000000001"/>
-    <n v="10.760000000000002"/>
-    <n v="35070.546666666662"/>
-    <n v="3259.3444857496893"/>
-  </r>
-  <r>
-    <n v="212"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.52659999999999996"/>
-    <n v="5.266"/>
-    <n v="23933.704999999998"/>
-    <n v="4544.9496771743252"/>
-  </r>
-  <r>
-    <n v="216"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.83850000000000002"/>
-    <n v="8.3849999999999998"/>
-    <n v="31418.145"/>
-    <n v="3746.9463327370304"/>
-  </r>
-  <r>
-    <n v="217"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.60540000000000005"/>
-    <n v="6.0540000000000003"/>
-    <n v="21960.267500000002"/>
-    <n v="3627.3980013214405"/>
-  </r>
-  <r>
-    <n v="221"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.87919999999999998"/>
-    <n v="8.7919999999999998"/>
-    <n v="26279.822499999998"/>
-    <n v="2989.0607939035485"/>
-  </r>
-  <r>
-    <n v="222"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.73780000000000001"/>
-    <n v="7.3780000000000001"/>
-    <n v="26573.9"/>
-    <n v="3601.7755489292495"/>
-  </r>
-  <r>
-    <n v="226"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="1.016"/>
-    <n v="10.16"/>
-    <n v="25047.067499999997"/>
-    <n v="2465.2625492125981"/>
-  </r>
-  <r>
-    <n v="227"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.58730000000000004"/>
-    <n v="5.8730000000000002"/>
-    <n v="23459.962499999998"/>
-    <n v="3994.5449514728411"/>
-  </r>
-  <r>
-    <n v="231"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.57410000000000005"/>
-    <n v="5.7410000000000005"/>
-    <n v="24404.193333333333"/>
-    <n v="4250.8610578877078"/>
-  </r>
-  <r>
-    <n v="236"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.76549999999999996"/>
-    <n v="7.6549999999999994"/>
-    <n v="24857.272499999999"/>
-    <n v="3247.1943174395819"/>
-  </r>
-  <r>
-    <n v="237"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.39479999999999998"/>
-    <n v="3.948"/>
-    <n v="28936.65"/>
-    <n v="7329.4452887538"/>
-  </r>
-  <r>
-    <n v="241"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.42470000000000002"/>
-    <n v="4.2469999999999999"/>
-    <n v="28637.067499999997"/>
-    <n v="6742.8932187426417"/>
-  </r>
-  <r>
-    <n v="242"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.42680000000000001"/>
-    <n v="4.2679999999999998"/>
-    <n v="31278.2075"/>
-    <n v="7328.5397141518279"/>
-  </r>
-  <r>
-    <n v="246"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.55510000000000004"/>
-    <n v="5.5510000000000002"/>
-    <n v="22627.752499999995"/>
-    <n v="4076.338047198702"/>
-  </r>
-  <r>
-    <n v="247"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.45910000000000001"/>
-    <n v="4.5910000000000002"/>
-    <n v="23481.166666666668"/>
-    <n v="5114.6082915849847"/>
-  </r>
-  <r>
-    <n v="251"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.55840000000000001"/>
-    <n v="5.5839999999999996"/>
-    <n v="27105.892500000002"/>
-    <n v="4854.2071095988549"/>
-  </r>
-  <r>
-    <n v="252"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.48870000000000002"/>
-    <n v="4.8870000000000005"/>
-    <n v="22918.497499999998"/>
-    <n v="4689.6864129322685"/>
-  </r>
-  <r>
-    <n v="256"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.49880000000000002"/>
-    <n v="4.9880000000000004"/>
-    <n v="22360.174999999999"/>
-    <n v="4482.7937048917393"/>
-  </r>
-  <r>
-    <n v="257"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 2"/>
-    <n v="0.49880000000000002"/>
-    <n v="4.9880000000000004"/>
-    <n v="21017.385000000002"/>
-    <n v="4213.5896150761828"/>
-  </r>
-  <r>
-    <n v="261"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.81969999999999998"/>
-    <n v="8.1969999999999992"/>
-    <n v="30132.337500000001"/>
-    <n v="3676.0201903135298"/>
-  </r>
-  <r>
-    <n v="262"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.5524"/>
-    <n v="5.524"/>
-    <n v="26710.116666666669"/>
-    <n v="4835.2854211923732"/>
-  </r>
-  <r>
-    <n v="266"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="1.141"/>
-    <n v="11.41"/>
-    <n v="30198.38"/>
-    <n v="2646.6590709903594"/>
-  </r>
-  <r>
-    <n v="267"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.48070000000000002"/>
-    <n v="4.8070000000000004"/>
-    <n v="24150.4725"/>
-    <n v="5024.0217391304341"/>
-  </r>
-  <r>
-    <n v="271"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.75129999999999997"/>
-    <n v="7.5129999999999999"/>
-    <n v="30005.073333333334"/>
-    <n v="3993.7539376192381"/>
-  </r>
-  <r>
-    <n v="272"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.63260000000000005"/>
-    <n v="6.3260000000000005"/>
-    <n v="21637.095000000001"/>
-    <n v="3420.3438191590262"/>
-  </r>
-  <r>
-    <n v="276"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.877"/>
-    <n v="8.77"/>
-    <n v="22263.479999999996"/>
-    <n v="2538.5952109464079"/>
-  </r>
-  <r>
-    <n v="277"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.47920000000000001"/>
-    <n v="4.7919999999999998"/>
-    <n v="22980.760000000002"/>
-    <n v="4795.6510851419034"/>
-  </r>
-  <r>
-    <n v="281"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.84150000000000003"/>
-    <n v="8.4150000000000009"/>
-    <n v="25011.2225"/>
-    <n v="2972.2189542483657"/>
-  </r>
-  <r>
-    <n v="282"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.7329"/>
-    <n v="7.3289999999999997"/>
-    <n v="23526.882499999996"/>
-    <n v="3210.1081320780459"/>
-  </r>
-  <r>
-    <n v="283"/>
-    <s v="0.0-0.05"/>
-    <x v="4"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.9264"/>
-    <n v="9.2639999999999993"/>
-    <n v="26764.302499999998"/>
-    <n v="2889.065468480138"/>
-  </r>
-  <r>
-    <n v="287"/>
-    <s v="0.05-0.10"/>
-    <x v="4"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.61529999999999996"/>
-    <n v="6.1529999999999996"/>
-    <n v="21797.772499999999"/>
-    <n v="3542.6251422070536"/>
-  </r>
-  <r>
-    <n v="291"/>
-    <s v="0.0-0.05"/>
-    <x v="1"/>
-    <s v="Preparo convencional"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.69"/>
-    <n v="6.8999999999999995"/>
-    <n v="20717.520000000004"/>
-    <n v="3002.5391304347836"/>
-  </r>
-  <r>
-    <n v="292"/>
-    <s v="0.05-0.10"/>
-    <x v="1"/>
-    <s v="Preparo convencional"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.59760000000000002"/>
-    <n v="5.976"/>
-    <n v="21709.534999999996"/>
-    <n v="3632.7869812583663"/>
-  </r>
-  <r>
-    <n v="296"/>
-    <s v="0.0-0.05"/>
-    <x v="1"/>
-    <s v="Preparo convencional"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.63590000000000002"/>
-    <n v="6.359"/>
-    <n v="30941.424999999999"/>
-    <n v="4865.7689888347222"/>
-  </r>
-  <r>
-    <n v="297"/>
-    <s v="0.05-0.10"/>
-    <x v="1"/>
-    <s v="Preparo convencional"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.41160000000000002"/>
-    <n v="4.1160000000000005"/>
-    <n v="21313.693333333333"/>
-    <n v="5178.2539682539673"/>
-  </r>
-  <r>
-    <n v="301"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.93110000000000004"/>
-    <n v="9.3109999999999999"/>
-    <n v="22573.754999999997"/>
-    <n v="2424.4178928149499"/>
-  </r>
-  <r>
-    <n v="302"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.41670000000000001"/>
-    <n v="4.1669999999999998"/>
-    <n v="28709.584999999999"/>
-    <n v="6889.7492200623947"/>
-  </r>
-  <r>
-    <n v="306"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="1.3089999999999999"/>
-    <n v="13.09"/>
-    <n v="29645.626666666663"/>
-    <n v="2264.7537560478736"/>
-  </r>
-  <r>
-    <n v="307"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.61770000000000003"/>
-    <n v="6.1770000000000005"/>
-    <n v="24134.39"/>
-    <n v="3907.1377691435969"/>
-  </r>
-  <r>
-    <n v="311"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="1.083"/>
-    <n v="10.83"/>
-    <n v="27734.8675"/>
-    <n v="2560.929593721145"/>
-  </r>
-  <r>
-    <n v="312"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.87819999999999998"/>
-    <n v="8.782"/>
-    <n v="23742.607499999998"/>
-    <n v="2703.5535754953312"/>
-  </r>
-  <r>
-    <n v="316"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="3.6819999999999999"/>
-    <n v="36.82"/>
-    <n v="29139.4025"/>
-    <n v="791.40148017381853"/>
-  </r>
-  <r>
-    <n v="317"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.57969999999999999"/>
-    <n v="5.7969999999999997"/>
-    <n v="20864.345000000001"/>
-    <n v="3599.1624978437126"/>
-  </r>
-  <r>
-    <n v="321"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="1.3340000000000001"/>
-    <n v="13.34"/>
-    <n v="33271.897499999999"/>
-    <n v="2494.1452398800598"/>
-  </r>
-  <r>
-    <n v="322"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="1.242"/>
-    <n v="12.42"/>
-    <n v="26844.293333333335"/>
-    <n v="2161.3762748255504"/>
-  </r>
-  <r>
-    <n v="326"/>
-    <s v="0.0-0.05"/>
-    <x v="3"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="1.137"/>
-    <n v="11.370000000000001"/>
-    <n v="31526.843333333334"/>
-    <n v="2772.8094400469067"/>
-  </r>
-  <r>
-    <n v="327"/>
-    <s v="0.05-0.10"/>
-    <x v="3"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.62829999999999997"/>
-    <n v="6.2829999999999995"/>
-    <n v="24499.469999999998"/>
-    <n v="3899.3267547349992"/>
-  </r>
-  <r>
-    <n v="331"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.73980000000000001"/>
-    <n v="7.3979999999999997"/>
-    <n v="25169.360000000001"/>
-    <n v="3402.1843741551775"/>
-  </r>
-  <r>
-    <n v="336"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.65839999999999999"/>
-    <n v="6.5839999999999996"/>
-    <n v="30838.116666666669"/>
-    <n v="4683.7965775617668"/>
-  </r>
-  <r>
-    <n v="337"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.46150000000000002"/>
-    <n v="4.6150000000000002"/>
-    <n v="28433.943333333333"/>
-    <n v="6161.2011556518592"/>
-  </r>
-  <r>
-    <n v="341"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="1.6479999999999999"/>
-    <n v="16.48"/>
-    <n v="28488.524999999998"/>
-    <n v="1728.6726334951454"/>
-  </r>
-  <r>
-    <n v="342"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.58209999999999995"/>
-    <n v="5.8209999999999997"/>
-    <n v="23415.582500000004"/>
-    <n v="4022.6047929908959"/>
-  </r>
-  <r>
-    <n v="346"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.61509999999999998"/>
-    <n v="6.1509999999999998"/>
-    <n v="25290.797500000001"/>
-    <n v="4111.6562347585759"/>
-  </r>
-  <r>
-    <n v="347"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.51319999999999999"/>
-    <n v="5.1319999999999997"/>
-    <n v="22268.19"/>
-    <n v="4339.086126266563"/>
-  </r>
-  <r>
-    <n v="351"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.72640000000000005"/>
-    <n v="7.2640000000000002"/>
-    <n v="25310.063333333335"/>
-    <n v="3484.3148861967697"/>
-  </r>
-  <r>
-    <n v="352"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.46360000000000001"/>
-    <n v="4.6360000000000001"/>
-    <n v="27814.057499999999"/>
-    <n v="5999.5809965487488"/>
-  </r>
-  <r>
-    <n v="356"/>
-    <s v="0.0-0.05"/>
-    <x v="0"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.63649999999999995"/>
-    <n v="6.3649999999999993"/>
-    <n v="25613.584999999999"/>
-    <n v="4024.1296150824828"/>
-  </r>
-  <r>
-    <n v="357"/>
-    <s v="0.05-0.10"/>
-    <x v="0"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.48709999999999998"/>
-    <n v="4.8709999999999996"/>
-    <n v="28198.077500000003"/>
-    <n v="5788.9709505235078"/>
-  </r>
-  <r>
-    <n v="361"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.73180000000000001"/>
-    <n v="7.3179999999999996"/>
-    <n v="21913.544999999998"/>
-    <n v="2994.471850232304"/>
-  </r>
-  <r>
-    <n v="362"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.69520000000000004"/>
-    <n v="6.952"/>
-    <n v="24178.105"/>
-    <n v="3477.8632048331415"/>
-  </r>
-  <r>
-    <n v="366"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.97889999999999999"/>
-    <n v="9.7889999999999997"/>
-    <n v="23443.825000000001"/>
-    <n v="2394.9152109510678"/>
-  </r>
-  <r>
-    <n v="367"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Cultivo Minimo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.58509999999999995"/>
-    <n v="5.8509999999999991"/>
-    <n v="19065.122500000001"/>
-    <n v="3258.4383011451041"/>
-  </r>
-  <r>
-    <n v="371"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Plantio direto"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="1.6990000000000001"/>
-    <n v="16.990000000000002"/>
-    <n v="28859.326666666664"/>
-    <n v="1698.6066313517751"/>
-  </r>
-  <r>
-    <n v="376"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="1.4219999999999999"/>
-    <n v="14.219999999999999"/>
-    <n v="22814.6175"/>
-    <n v="1604.4034810126584"/>
-  </r>
-  <r>
-    <n v="377"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Plantio direto"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.74099999999999999"/>
-    <n v="7.41"/>
-    <n v="21712.25"/>
-    <n v="2930.1282051282051"/>
-  </r>
-  <r>
-    <n v="381"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="1.52"/>
-    <n v="15.2"/>
-    <n v="23599.065000000002"/>
-    <n v="1552.5700657894738"/>
-  </r>
-  <r>
-    <n v="382"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Preparo profundo"/>
-    <s v="Linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.66669999999999996"/>
-    <n v="6.6669999999999998"/>
-    <n v="24007.555"/>
-    <n v="3600.9532023398833"/>
-  </r>
-  <r>
-    <n v="386"/>
-    <s v="0.0-0.05"/>
-    <x v="2"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.58589999999999998"/>
-    <n v="5.859"/>
-    <n v="20932.337500000001"/>
-    <n v="3572.6809182454344"/>
-  </r>
-  <r>
-    <n v="387"/>
-    <s v="0.05-0.10"/>
-    <x v="2"/>
-    <s v="Preparo profundo"/>
-    <s v="Entre linha"/>
-    <s v="Bloco 3"/>
-    <n v="0.62719999999999998"/>
-    <n v="6.2720000000000002"/>
-    <n v="25181.58"/>
-    <n v="4014.9202806122448"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:G5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Média de HLIF" fld="9" subtotal="average" baseField="0" baseItem="958128784"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3658,82 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3869.350124483849</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3574.8236384825213</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3883.9681588603435</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4524.8461835843536</v>
-      </c>
-      <c r="F5" s="7">
-        <v>3871.7048509279662</v>
-      </c>
-      <c r="G5" s="7">
-        <v>3856.3958982293821</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G198" sqref="G198:G199"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3748,37 +677,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3789,31 +718,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2">
         <v>24772.31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3824,31 +753,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2">
         <v>28103.743333333332</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3859,31 +788,31 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2">
         <v>27172.397499999999</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3894,31 +823,31 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2">
         <v>26634.075000000001</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3929,31 +858,31 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2">
         <v>32063.983333333334</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3964,31 +893,31 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2">
         <v>31260.442500000001</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3999,31 +928,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J8" s="2">
         <v>29744.93</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4034,31 +963,31 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J9" s="2">
         <v>29960.522499999999</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4069,31 +998,31 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J10" s="2">
         <v>29931.995000000003</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4104,31 +1033,31 @@
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2">
         <v>30973.425000000003</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4139,31 +1068,31 @@
         <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J12" s="2">
         <v>30973.425000000003</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4174,31 +1103,31 @@
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J13" s="2">
         <v>27118.35</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4209,31 +1138,31 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J14" s="2">
         <v>26668.085000000003</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4244,31 +1173,31 @@
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J15" s="2">
         <v>25444.462500000001</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4279,31 +1208,31 @@
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J16" s="2">
         <v>28317.543333333335</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4314,31 +1243,31 @@
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J17" s="2">
         <v>28890.14333333333</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4349,31 +1278,31 @@
         <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J18" s="2">
         <v>28890.14333333333</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4384,31 +1313,31 @@
         <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J19" s="2">
         <v>28136.885000000002</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4419,31 +1348,31 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J20" s="2">
         <v>28136.885000000002</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4454,31 +1383,31 @@
         <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J21" s="2">
         <v>27109.61</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4489,31 +1418,31 @@
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J22" s="2">
         <v>26057.99666666667</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -4524,31 +1453,31 @@
         <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J23" s="2">
         <v>24855.997500000001</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -4559,31 +1488,31 @@
         <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J24" s="2">
         <v>26767.9175</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4594,31 +1523,31 @@
         <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J25" s="2">
         <v>27519.577499999999</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -4629,31 +1558,31 @@
         <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J26" s="2">
         <v>26447.077499999999</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4664,31 +1593,31 @@
         <v>71</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J27" s="2">
         <v>26988.45</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4699,31 +1628,31 @@
         <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J28" s="2">
         <v>26988.45</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -4734,31 +1663,31 @@
         <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J29" s="2">
         <v>26362.404999999999</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -4769,31 +1698,31 @@
         <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J30" s="2">
         <v>30263.755000000001</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4804,31 +1733,31 @@
         <v>81</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J31" s="2">
         <v>29323.096666666665</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4839,31 +1768,31 @@
         <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J32" s="2">
         <v>25920.65</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4874,31 +1803,31 @@
         <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J33" s="2">
         <v>26551.345000000001</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4909,31 +1838,31 @@
         <v>87</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J34" s="2">
         <v>26805.32</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -4944,31 +1873,31 @@
         <v>91</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J35" s="2">
         <v>25975.5275</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4979,31 +1908,31 @@
         <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J36" s="2">
         <v>30052.282500000001</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -5014,31 +1943,31 @@
         <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J37" s="2">
         <v>26285.352500000001</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -5049,31 +1978,31 @@
         <v>97</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J38" s="2">
         <v>26285.352500000001</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -5084,31 +2013,31 @@
         <v>101</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J39" s="2">
         <v>28915.682500000003</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -5119,31 +2048,31 @@
         <v>102</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J40" s="2">
         <v>28915.682500000003</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -5154,31 +2083,31 @@
         <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J41" s="2">
         <v>28445.826666666671</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -5189,31 +2118,31 @@
         <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J42" s="2">
         <v>28445.826666666671</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -5224,31 +2153,31 @@
         <v>111</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J43" s="2">
         <v>26192.767499999998</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -5259,31 +2188,31 @@
         <v>112</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J44" s="2">
         <v>25427.065000000002</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -5294,31 +2223,31 @@
         <v>116</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J45" s="2">
         <v>26860.44</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -5329,31 +2258,31 @@
         <v>117</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J46" s="2">
         <v>26860.44</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -5364,31 +2293,31 @@
         <v>122</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J47" s="2">
         <v>26110.717500000002</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -5399,31 +2328,31 @@
         <v>126</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J48" s="2">
         <v>24055.93</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -5434,31 +2363,31 @@
         <v>127</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J49" s="2">
         <v>24055.93</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -5469,31 +2398,31 @@
         <v>261</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J50" s="2">
         <v>28268.032499999998</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -5504,31 +2433,31 @@
         <v>262</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J51" s="2">
         <v>28104.592499999999</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -5539,31 +2468,31 @@
         <v>266</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J52" s="2">
         <v>27453.073333333334</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -5574,31 +2503,31 @@
         <v>267</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J53" s="2">
         <v>27453.073333333334</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -5609,31 +2538,31 @@
         <v>271</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J54" s="2">
         <v>28880.797500000001</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -5644,31 +2573,31 @@
         <v>272</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J55" s="2">
         <v>25010.93</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -5679,31 +2608,31 @@
         <v>276</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J56" s="2">
         <v>26358.077499999999</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -5714,31 +2643,31 @@
         <v>277</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J57" s="2">
         <v>25377.657500000001</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -5749,31 +2678,31 @@
         <v>281</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J58" s="2">
         <v>29241.432499999999</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -5784,31 +2713,31 @@
         <v>282</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J59" s="2">
         <v>24845.134999999998</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -5819,31 +2748,31 @@
         <v>286</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J60" s="2">
         <v>26951.85</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -5854,31 +2783,31 @@
         <v>287</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J61" s="2">
         <v>26951.85</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -5889,31 +2818,31 @@
         <v>291</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J62" s="2">
         <v>23582.273333333331</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -5924,31 +2853,31 @@
         <v>292</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J63" s="2">
         <v>22033.84</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -5959,31 +2888,31 @@
         <v>296</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J64" s="2">
         <v>20915.434999999998</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -5994,31 +2923,31 @@
         <v>297</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J65" s="2">
         <v>27878.575000000001</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -6029,31 +2958,31 @@
         <v>301</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J66" s="2">
         <v>26516.412499999999</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -6064,31 +2993,31 @@
         <v>302</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J67" s="2">
         <v>26516.412499999999</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -6099,31 +3028,31 @@
         <v>306</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J68" s="2">
         <v>27326.785</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -6134,31 +3063,31 @@
         <v>307</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J69" s="2">
         <v>27897.74</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -6169,31 +3098,31 @@
         <v>311</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J70" s="2">
         <v>26484.640000000003</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -6204,31 +3133,31 @@
         <v>312</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J71" s="2">
         <v>24219.489999999998</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -6239,31 +3168,31 @@
         <v>316</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J72" s="2">
         <v>27387.7575</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -6274,31 +3203,31 @@
         <v>317</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J73" s="2">
         <v>27190.142500000002</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -6309,31 +3238,31 @@
         <v>321</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J74" s="2">
         <v>26089.985000000001</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -6344,31 +3273,31 @@
         <v>322</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J75" s="2">
         <v>27878.844999999998</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -6379,31 +3308,31 @@
         <v>326</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J76" s="2">
         <v>25662.079999999998</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -6414,31 +3343,31 @@
         <v>327</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J77" s="2">
         <v>25662.079999999998</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -6449,31 +3378,31 @@
         <v>331</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J78" s="2">
         <v>28936.95</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -6484,31 +3413,31 @@
         <v>336</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J79" s="2">
         <v>33505.67</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -6519,31 +3448,31 @@
         <v>337</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J80" s="2">
         <v>33505.67</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -6554,31 +3483,31 @@
         <v>341</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J81" s="2">
         <v>26039.327499999999</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -6589,31 +3518,31 @@
         <v>342</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J82" s="2">
         <v>26039.327499999999</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -6624,31 +3553,31 @@
         <v>346</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J83" s="2">
         <v>31301.66</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -6659,31 +3588,31 @@
         <v>347</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J84" s="2">
         <v>26296.9375</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -6694,31 +3623,31 @@
         <v>351</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J85" s="2">
         <v>28655.95</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -6729,31 +3658,31 @@
         <v>352</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J86" s="2">
         <v>33343.406666666669</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -6764,31 +3693,31 @@
         <v>356</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J87" s="2">
         <v>29919.247500000001</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -6799,31 +3728,31 @@
         <v>357</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J88" s="2">
         <v>29387.536666666667</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -6834,31 +3763,31 @@
         <v>361</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J89" s="2">
         <v>25273.14</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -6869,31 +3798,31 @@
         <v>362</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J90" s="2">
         <v>26602.915000000001</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -6904,31 +3833,31 @@
         <v>366</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J91" s="2">
         <v>25336.294999999998</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -6939,31 +3868,31 @@
         <v>367</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J92" s="2">
         <v>26534.045000000002</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -6974,31 +3903,31 @@
         <v>371</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J93" s="2">
         <v>23362.32</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -7009,31 +3938,31 @@
         <v>376</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J94" s="2">
         <v>30127.353333333333</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -7044,31 +3973,31 @@
         <v>377</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J95" s="2">
         <v>26154.273333333334</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -7079,31 +4008,31 @@
         <v>381</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J96" s="2">
         <v>25635.417500000003</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -7114,31 +4043,31 @@
         <v>382</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J97" s="2">
         <v>27210.587500000001</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -7149,31 +4078,31 @@
         <v>386</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J98" s="2">
         <v>23512.502500000002</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -7184,31 +4113,31 @@
         <v>387</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J99" s="2">
         <v>23873.39</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -7219,19 +4148,19 @@
         <v>1</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>0</v>
@@ -7254,19 +4183,19 @@
         <v>2</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>2</v>
@@ -7289,19 +4218,19 @@
         <v>6</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>0</v>
@@ -7324,19 +4253,19 @@
         <v>7</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>2</v>
@@ -7359,19 +4288,19 @@
         <v>11</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>0</v>
@@ -7394,19 +4323,19 @@
         <v>12</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>2</v>
@@ -7429,19 +4358,19 @@
         <v>16</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>0</v>
@@ -7464,19 +4393,19 @@
         <v>21</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>0</v>
@@ -7499,19 +4428,19 @@
         <v>22</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>2</v>
@@ -7534,19 +4463,19 @@
         <v>26</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>0</v>
@@ -7569,19 +4498,19 @@
         <v>27</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>2</v>
@@ -7604,19 +4533,19 @@
         <v>31</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>0</v>
@@ -7639,19 +4568,19 @@
         <v>32</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>2</v>
@@ -7674,19 +4603,19 @@
         <v>36</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>0</v>
@@ -7709,19 +4638,19 @@
         <v>37</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>2</v>
@@ -7744,19 +4673,19 @@
         <v>41</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>0</v>
@@ -7779,19 +4708,19 @@
         <v>42</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>2</v>
@@ -7814,19 +4743,19 @@
         <v>51</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>0</v>
@@ -7849,19 +4778,19 @@
         <v>52</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>2</v>
@@ -7884,19 +4813,19 @@
         <v>56</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>0</v>
@@ -7919,19 +4848,19 @@
         <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>2</v>
@@ -7954,19 +4883,19 @@
         <v>61</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>0</v>
@@ -7989,19 +4918,19 @@
         <v>62</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>2</v>
@@ -8024,19 +4953,19 @@
         <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>0</v>
@@ -8059,19 +4988,19 @@
         <v>67</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>2</v>
@@ -8094,19 +5023,19 @@
         <v>71</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>0</v>
@@ -8129,19 +5058,19 @@
         <v>72</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>2</v>
@@ -8164,19 +5093,19 @@
         <v>76</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>0</v>
@@ -8199,19 +5128,19 @@
         <v>77</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>2</v>
@@ -8234,19 +5163,19 @@
         <v>81</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>0</v>
@@ -8269,19 +5198,19 @@
         <v>82</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>2</v>
@@ -8304,19 +5233,19 @@
         <v>86</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>0</v>
@@ -8339,19 +5268,19 @@
         <v>87</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>2</v>
@@ -8374,19 +5303,19 @@
         <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>0</v>
@@ -8409,19 +5338,19 @@
         <v>92</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>2</v>
@@ -8444,19 +5373,19 @@
         <v>96</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>0</v>
@@ -8479,19 +5408,19 @@
         <v>97</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>2</v>
@@ -8514,19 +5443,19 @@
         <v>101</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>0</v>
@@ -8549,19 +5478,19 @@
         <v>102</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>2</v>
@@ -8584,19 +5513,19 @@
         <v>106</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>0</v>
@@ -8619,19 +5548,19 @@
         <v>107</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>2</v>
@@ -8654,19 +5583,19 @@
         <v>111</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>0</v>
@@ -8689,19 +5618,19 @@
         <v>112</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>2</v>
@@ -8724,19 +5653,19 @@
         <v>116</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>0</v>
@@ -8759,19 +5688,19 @@
         <v>117</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>2</v>
@@ -8794,19 +5723,19 @@
         <v>122</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>2</v>
@@ -8829,19 +5758,19 @@
         <v>126</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>0</v>
@@ -8864,19 +5793,19 @@
         <v>127</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>2</v>
@@ -8899,19 +5828,19 @@
         <v>261</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>0</v>
@@ -8934,19 +5863,19 @@
         <v>262</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>2</v>
@@ -8969,19 +5898,19 @@
         <v>266</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>0</v>
@@ -9004,19 +5933,19 @@
         <v>267</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>2</v>
@@ -9039,19 +5968,19 @@
         <v>271</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>0</v>
@@ -9074,19 +6003,19 @@
         <v>272</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>2</v>
@@ -9109,19 +6038,19 @@
         <v>276</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>0</v>
@@ -9144,19 +6073,19 @@
         <v>277</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>2</v>
@@ -9179,19 +6108,19 @@
         <v>281</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>0</v>
@@ -9214,19 +6143,19 @@
         <v>282</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>2</v>
@@ -9249,19 +6178,19 @@
         <v>286</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>0</v>
@@ -9284,19 +6213,19 @@
         <v>287</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>2</v>
@@ -9319,19 +6248,19 @@
         <v>291</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>0</v>
@@ -9354,19 +6283,19 @@
         <v>292</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>2</v>
@@ -9389,19 +6318,19 @@
         <v>296</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>0</v>
@@ -9424,19 +6353,19 @@
         <v>297</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>2</v>
@@ -9459,19 +6388,19 @@
         <v>301</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>0</v>
@@ -9494,19 +6423,19 @@
         <v>302</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>2</v>
@@ -9529,19 +6458,19 @@
         <v>306</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>0</v>
@@ -9564,19 +6493,19 @@
         <v>307</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>2</v>
@@ -9599,19 +6528,19 @@
         <v>311</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>0</v>
@@ -9634,19 +6563,19 @@
         <v>312</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>2</v>
@@ -9669,19 +6598,19 @@
         <v>316</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>0</v>
@@ -9704,19 +6633,19 @@
         <v>317</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>2</v>
@@ -9739,19 +6668,19 @@
         <v>321</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>0</v>
@@ -9774,19 +6703,19 @@
         <v>322</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>2</v>
@@ -9809,19 +6738,19 @@
         <v>326</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>0</v>
@@ -9844,19 +6773,19 @@
         <v>327</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>2</v>
@@ -9879,19 +6808,19 @@
         <v>331</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>0</v>
@@ -9914,19 +6843,19 @@
         <v>336</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H177" s="3" t="s">
         <v>0</v>
@@ -9949,19 +6878,19 @@
         <v>337</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>2</v>
@@ -9984,19 +6913,19 @@
         <v>341</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>0</v>
@@ -10019,19 +6948,19 @@
         <v>342</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>2</v>
@@ -10054,19 +6983,19 @@
         <v>346</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>0</v>
@@ -10089,19 +7018,19 @@
         <v>347</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>2</v>
@@ -10124,19 +7053,19 @@
         <v>351</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>0</v>
@@ -10159,19 +7088,19 @@
         <v>352</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>2</v>
@@ -10194,19 +7123,19 @@
         <v>356</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>0</v>
@@ -10229,19 +7158,19 @@
         <v>357</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>2</v>
@@ -10264,19 +7193,19 @@
         <v>361</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>0</v>
@@ -10299,19 +7228,19 @@
         <v>362</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>2</v>
@@ -10334,19 +7263,19 @@
         <v>366</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>0</v>
@@ -10369,19 +7298,19 @@
         <v>367</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>2</v>
@@ -10404,19 +7333,19 @@
         <v>371</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>0</v>
@@ -10439,19 +7368,19 @@
         <v>376</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>0</v>
@@ -10474,19 +7403,19 @@
         <v>377</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>2</v>
@@ -10509,19 +7438,19 @@
         <v>381</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E194" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>0</v>
@@ -10544,19 +7473,19 @@
         <v>382</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>2</v>
@@ -10579,19 +7508,19 @@
         <v>386</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>0</v>
@@ -10614,19 +7543,19 @@
         <v>387</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>2</v>
